--- a/MacroCli/doc/american_farma_out.xlsx
+++ b/MacroCli/doc/american_farma_out.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alteryx\MacroCli\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\bbi_pharma\MacroCli\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Filipe Rodrigues Pereira - Modo de exibição pessoal" guid="{23944ED6-908E-4A5B-9601-DE911E5975FF}" mergeInterval="0" changesSavedWin="1" personalView="1" maximized="1" xWindow="1596" yWindow="-4" windowWidth="1448" windowHeight="908" activeSheetId="3"/>
+    <customWorkbookView name="Filipe Rodrigues Pereira - Modo de exibição pessoal" guid="{11496362-9D12-4CF9-97EC-2769DEEFD014}" mergeInterval="0" changesSavedWin="1" personalView="1" maximized="1" xWindow="1596" yWindow="-4" windowWidth="1448" windowHeight="908" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -308,8 +308,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DAECD0D8-F5D1-4918-94B3-0E856BEE48B6}">
-  <header guid="{DAECD0D8-F5D1-4918-94B3-0E856BEE48B6}" dateTime="2015-03-25T10:46:15" maxSheetId="4" userName="Filipe Rodrigues Pereira" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{601F7A37-B16A-4122-9439-CEC69C1D932E}">
+  <header guid="{601F7A37-B16A-4122-9439-CEC69C1D932E}" dateTime="2015-03-25T19:44:51" maxSheetId="4" userName="Filipe Rodrigues Pereira" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -324,8 +324,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{DAECD0D8-F5D1-4918-94B3-0E856BEE48B6}" name="Filipe Rodrigues Pereira" id="-424495812" dateTime="2015-03-25T10:46:15"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+  <userInfo guid="{601F7A37-B16A-4122-9439-CEC69C1D932E}" name="Filipe Rodrigues Pereira" id="-424494907" dateTime="2015-03-25T19:44:51"/>
+  <userInfo guid="{601F7A37-B16A-4122-9439-CEC69C1D932E}" name="Filipe Rodrigues Pereira" id="-424492217" dateTime="2015-03-25T19:45:34"/>
 </users>
 </file>
 
@@ -4074,7 +4075,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23944ED6-908E-4A5B-9601-DE911E5975FF}">
+    <customSheetView guid="{11496362-9D12-4CF9-97EC-2769DEEFD014}">
       <selection activeCell="B2" sqref="B2:B20"/>
       <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4973,7 +4974,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23944ED6-908E-4A5B-9601-DE911E5975FF}">
+    <customSheetView guid="{11496362-9D12-4CF9-97EC-2769DEEFD014}">
       <selection activeCell="L2" sqref="L2"/>
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     </customSheetView>
@@ -8250,7 +8251,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23944ED6-908E-4A5B-9601-DE911E5975FF}" topLeftCell="A97">
+    <customSheetView guid="{11496362-9D12-4CF9-97EC-2769DEEFD014}" topLeftCell="A97">
       <selection activeCell="N135" sqref="N135"/>
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     </customSheetView>
